--- a/records/report.xlsx
+++ b/records/report.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="2024-07-25" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="2024-09-21" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="181029" fullCalcOnLoad="1"/>
@@ -1169,4 +1170,485 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ФИО врача</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Специализация</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Ассистент</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>М</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Ж</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Р</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Итого</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Сирил_Маха_Мадакалапуваге_Де_Силва</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Педиатрия</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Хема_Камтамнени</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Терапевт/Семейная_мед.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Надиша_Гаятри_Суриаратчи</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Педиатрия</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Нирупа_Шах</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Неврология/мед.внутр.б.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Рамадеви_Шанкаран</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Педиатрия</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Султанали_Фазал_Алидина_Пабани</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Лечение_болевых_синдромов</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Виджай_Кумар_Кришнамурти</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Кардиология</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>9</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Мира_Кришнан</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Неврология/мед.внутр.б.</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>10</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Ума_Махешвари</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Гинекология</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>11</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Сандхья_Вишванатха_Гохале</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Офтальмолог</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>12</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Рекха_Пилай</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Неврология/мед.внутр.б.</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>13</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Хрущёва_Наталья</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Стоматолог</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>14</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Зайцев_Андрей</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Стоматолог</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>15</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Хамитов_Рустам</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Терапевт</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>16</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Жумадыл_Хафиз </t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>терапевт</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>17</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Белозерская_Инна_роддом </t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>психолог</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>18</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Николаев_Вадим</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>психолог</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>19</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Хамитова_Наталья</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>психолог</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>20</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ионченкова_Ирина </t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>массажист</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>21</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Хананова_Резида</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>массажист</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>22</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Наймушин_Вячеслав</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>массажист</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/records/report.xlsx
+++ b/records/report.xlsx
@@ -9,6 +9,7 @@
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="2024-07-25" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="2024-09-21" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="2024-10-12" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="181029" fullCalcOnLoad="1"/>
@@ -1651,4 +1652,485 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ФИО врача</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Специализация</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Ассистент</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>М</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Ж</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Р</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Итого</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Сирил_Маха_Мадакалапуваге_Де_Силва</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Педиатрия</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Хема_Камтамнени</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Терапевт/Семейная_мед.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Надиша_Гаятри_Суриаратчи</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Педиатрия</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Нирупа_Шах</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Неврология/мед.внутр.б.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Рамадеви_Шанкаран</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Педиатрия</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Султанали_Фазал_Алидина_Пабани</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Лечение_болевых_синдромов</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Виджай_Кумар_Кришнамурти</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Кардиология</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>9</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Мира_Кришнан</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Неврология/мед.внутр.б.</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>10</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Ума_Махешвари</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Гинекология</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>11</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Сандхья_Вишванатха_Гохале</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Офтальмолог</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>12</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Рекха_Пилай</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Неврология/мед.внутр.б.</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>13</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Хрущёва_Наталья</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Стоматолог</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>14</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Зайцев_Андрей</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Стоматолог</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>15</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Хамитов_Рустам</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Терапевт</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>16</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Жумадыл_Хафиз </t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>терапевт</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>17</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Белозерская_Инна_роддом </t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>психолог</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>18</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Николаев_Вадим</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>психолог</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>19</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Хамитова_Наталья</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>психолог</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>20</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ионченкова_Ирина </t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>массажист</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>21</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Хананова_Резида</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>массажист</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>22</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Наймушин_Вячеслав</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>массажист</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/records/report.xlsx
+++ b/records/report.xlsx
@@ -3,16 +3,21 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="2024-07-25" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="2024-09-21" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="2024-10-12" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="2024-10-25" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="2024-10-26" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="2024-10-28" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="2024-10-29" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="2024-10-30" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="181029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -430,7 +435,7 @@
   </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -452,7 +457,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -1185,7 +1190,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -1666,6 +1671,1052 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ФИО врача</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Специализация</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Ассистент</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>М</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Ж</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Р</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Итого</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Сирил_Маха_Мадакалапуваге_Де_Силва</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Педиатрия</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Хема_Камтамнени</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Терапевт/Семейная_мед.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Надиша_Гаятри_Суриаратчи</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Педиатрия</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Нирупа_Шах</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Неврология/мед.внутр.б.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Рамадеви_Шанкаран</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Педиатрия</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Султанали_Фазал_Алидина_Пабани</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Лечение_болевых_синдромов</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Виджай_Кумар_Кришнамурти</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Кардиология</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>9</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Мира_Кришнан</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Неврология/мед.внутр.б.</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>10</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Ума_Махешвари</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Гинекология</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>11</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Сандхья_Вишванатха_Гохале</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Офтальмолог</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>12</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Рекха_Пилай</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Неврология/мед.внутр.б.</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>13</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Хрущёва_Наталья</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Стоматолог</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>14</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Зайцев_Андрей</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Стоматолог</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>15</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Хамитов_Рустам</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Терапевт</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>16</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Жумадыл_Хафиз </t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>терапевт</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>17</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Белозерская_Инна_роддом </t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>психолог</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>18</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Николаев_Вадим</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>психолог</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>19</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Хамитова_Наталья</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>психолог</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>20</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ионченкова_Ирина </t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>массажист</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>21</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Хананова_Резида</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>массажист</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>22</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Наймушин_Вячеслав</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>массажист</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ФИО врача</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Специализация</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Ассистент</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>М</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Ж</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Р</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Итого</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Сирил_Маха_Мадакалапуваге_Де_Силва</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Педиатрия</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Хема_Камтамнени</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Терапевт/Семейная_мед.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>assist</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Надиша_Гаятри_Суриаратчи</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Педиатрия</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Нирупа_Шах</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Неврология/мед.внутр.б.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Рамадеви_Шанкаран</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Педиатрия</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Султанали_Фазал_Алидина_Пабани</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Лечение_болевых_синдромов</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Виджай_Кумар_Кришнамурти</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Кардиология</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>9</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Мира_Кришнан</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Неврология/мед.внутр.б.</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>10</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Ума_Махешвари</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Гинекология</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>11</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Сандхья_Вишванатха_Гохале</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Офтальмолог</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>12</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Рекха_Пилай</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Неврология/мед.внутр.б.</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>13</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Хрущёва_Наталья</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Стоматолог</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>14</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Зайцев_Андрей</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Стоматолог</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>15</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Хамитов_Рустам</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Терапевт</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>16</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Жумадыл_Хафиз </t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>терапевт</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>17</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Белозерская_Инна_роддом </t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>психолог</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>18</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Николаев_Вадим</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>психолог</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>19</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Хамитова_Наталья</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>психолог</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>20</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ионченкова_Ирина </t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>массажист</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>21</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Хананова_Резида</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>массажист</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>22</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Наймушин_Вячеслав</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>массажист</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>New_Doctor_1</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>24</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>New_Doctor_2</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>undefined</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>25</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>New_Doc_3</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>undefined</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>New_Doc_4</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -1746,7 +2797,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>n/a</t>
+          <t>assist</t>
         </is>
       </c>
     </row>
@@ -2125,6 +3176,1785 @@
         </is>
       </c>
       <c r="D22" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>New_Doctor_1</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>24</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>New_Doctor_2</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>undefined</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>25</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>New_Doc_3</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>undefined</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>New_Doc_4</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ФИО врача</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Специализация</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Ассистент</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>М</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Ж</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Р</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Итого</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Сирил_Маха_Мадакалапуваге_Де_Силва</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Педиатрия</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Хема_Камтамнени</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Терапевт/Семейная_мед.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>assist</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Надиша_Гаятри_Суриаратчи</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Педиатрия</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Нирупа_Шах</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Неврология/мед.внутр.б.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Рамадеви_Шанкаран</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Педиатрия</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Султанали_Фазал_Алидина_Пабани</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Лечение_болевых_синдромов</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Виджай_Кумар_Кришнамурти</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Кардиология</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>9</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Мира_Кришнан</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Неврология/мед.внутр.б.</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>10</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Ума_Махешвари</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Гинекология</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>11</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Сандхья_Вишванатха_Гохале</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Офтальмолог</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>12</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Рекха_Пилай</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Неврология/мед.внутр.б.</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>13</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Хрущёва_Наталья</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Стоматолог</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>14</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Зайцев_Андрей</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Стоматолог</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>15</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Хамитов_Рустам</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Терапевт</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>16</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Жумадыл_Хафиз </t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>терапевт</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>17</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Белозерская_Инна_роддом </t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>психолог</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>18</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Николаев_Вадим</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>психолог</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>19</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Хамитова_Наталья</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>психолог</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>20</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ионченкова_Ирина </t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>массажист</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>21</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Хананова_Резида</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>массажист</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>22</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Наймушин_Вячеслав</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>массажист</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>New_Doctor_1</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>24</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>New_Doctor_2</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>undefined</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>25</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>New_Doc_3</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>undefined</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>New_Doc_4</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ФИО врача</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Специализация</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Ассистент</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>М</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Ж</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Р</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Итого</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Сирил_Маха_Мадакалапуваге_Де_Силва</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Педиатрия</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Хема_Камтамнени</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Терапевт/Семейная_мед.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>assist</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Надиша_Гаятри_Суриаратчи</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Педиатрия</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Нирупа_Шах</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Неврология/мед.внутр.б.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Рамадеви_Шанкаран</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Педиатрия</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Султанали_Фазал_Алидина_Пабани</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Лечение_болевых_синдромов</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Виджай_Кумар_Кришнамурти</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Кардиология</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>9</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Мира_Кришнан</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Неврология/мед.внутр.б.</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>10</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Ума_Махешвари</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Гинекология</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>11</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Сандхья_Вишванатха_Гохале</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Офтальмолог</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>12</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Рекха_Пилай</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Неврология/мед.внутр.б.</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>13</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Хрущёва_Наталья</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Стоматолог</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>14</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Зайцев_Андрей</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Стоматолог</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>15</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Хамитов_Рустам</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Терапевт</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>16</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Жумадыл_Хафиз </t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>терапевт</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>17</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Белозерская_Инна_роддом </t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>психолог</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>18</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Николаев_Вадим</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>психолог</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>19</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Хамитова_Наталья</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>психолог</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>20</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ионченкова_Ирина </t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>массажист</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>21</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Хананова_Резида</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>массажист</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>22</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Наймушин_Вячеслав</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>массажист</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>New_Doctor_1</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>24</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>New_Doctor_2</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>undefined</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>25</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>New_Doc_3</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>undefined</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>New_Doc_4</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ФИО врача</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Специализация</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Ассистент</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>М</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Ж</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Р</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Итого</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Сирил_Маха_Мадакалапуваге_Де_Силва</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Педиатрия</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Хема_Камтамнени</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Терапевт/Семейная_мед.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>assist</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Надиша_Гаятри_Суриаратчи</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Педиатрия</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Нирупа_Шах</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Неврология/мед.внутр.б.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Рамадеви_Шанкаран</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Педиатрия</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Султанали_Фазал_Алидина_Пабани</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Лечение_болевых_синдромов</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Виджай_Кумар_Кришнамурти</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Кардиология</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>9</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Мира_Кришнан</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Неврология/мед.внутр.б.</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>10</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Ума_Махешвари</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Гинекология</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>11</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Сандхья_Вишванатха_Гохале</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Офтальмолог</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>12</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Рекха_Пилай</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Неврология/мед.внутр.б.</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>13</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Хрущёва_Наталья</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Стоматолог</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>14</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Зайцев_Андрей</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Стоматолог</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>15</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Хамитов_Рустам</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Терапевт</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>16</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Жумадыл_Хафиз </t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>терапевт</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>17</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Белозерская_Инна_роддом </t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>психолог</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>18</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Николаев_Вадим</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>психолог</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>19</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Хамитова_Наталья</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>психолог</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>20</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ионченкова_Ирина </t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>массажист</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>21</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Хананова_Резида</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>массажист</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>22</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Наймушин_Вячеслав</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>массажист</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>New_Doctor_1</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>24</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>New_Doctor_2</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>undefined</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>25</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>New_Doc_3</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>undefined</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>New_Doc_4</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>n/a</t>
         </is>

--- a/records/report.xlsx
+++ b/records/report.xlsx
@@ -4497,8 +4497,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>4</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -4517,8 +4519,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>5</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -4537,8 +4541,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>6</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
